--- a/biology/Zoologie/Caudinidae/Caudinidae.xlsx
+++ b/biology/Zoologie/Caudinidae/Caudinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caudinidae forment une famille d'holothuries de l'ordre des Molpadida.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces holothuries sont pourvues d'un appendice caudal, d'où le nom de la famille, mis à part celles du genre Acaudina. 
-Elles sont équipées de 15 tentacules digités autour de la bouche (avec des digitations exclusivement latérales et pas de terminale[2]), de papilles anales, et d'arbres respiratoires. 
+Elles sont équipées de 15 tentacules digités autour de la bouche (avec des digitations exclusivement latérales et pas de terminale), de papilles anales, et d'arbres respiratoires. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 juin 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 juin 2014) :
 genre Acaudina Clark, 1908 -- 9 espèces
 genre Caudina Stimpson, 1853 -- 8 espèces
 genre Ceraplectana Clark, 1908 -- 1 espèce
